--- a/biology/Botanique/Pré-aux-Clercs/Pré-aux-Clercs.xlsx
+++ b/biology/Botanique/Pré-aux-Clercs/Pré-aux-Clercs.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Pr%C3%A9-aux-Clercs</t>
+          <t>Pré-aux-Clercs</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Pré-aux-Clercs était jadis une prairie célèbre à Paris, puisque c'est dans celle-ci entre autres que se donnaient des rendez-vous pour des duels (on le voit notamment dans la célèbre pièce de théâtre d'Edmond Rostand Cyrano de Bergerac et dans l'opéra homonyme de Louis-Joseph-Ferdinand Hérold). L'actuelle rue du Pré-aux-Clercs située dans le 7e arrondissement perpétue son souvenir[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Pré-aux-Clercs était jadis une prairie célèbre à Paris, puisque c'est dans celle-ci entre autres que se donnaient des rendez-vous pour des duels (on le voit notamment dans la célèbre pièce de théâtre d'Edmond Rostand Cyrano de Bergerac et dans l'opéra homonyme de Louis-Joseph-Ferdinand Hérold). L'actuelle rue du Pré-aux-Clercs située dans le 7e arrondissement perpétue son souvenir.
 C'est également le nom d'un éditeur parisien.
 </t>
         </is>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Pr%C3%A9-aux-Clercs</t>
+          <t>Pré-aux-Clercs</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Emplacement et origine du nom</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'historien Marius Audin écrit[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'historien Marius Audin écrit :
 « D'après les statuts constitutifs donnés par Philippe le Bel, le roi de la Bazoche faisait tous les ans, à Paris, la montre ou revue de ses sujets, sorte de carrousel où étaient conviés tous les clercs du Palais, ceux des provinces et leurs suppôts, et qui se tenait à l'origine dans une prairie appelée pour cette raison Pré-aux-Clercs. Cette prairie s'étendait sur la rive gauche de la Seine, à l'emplacement qu'occupent aujourd'hui le quai Malaquais, les rues de Verneuil, de l'Université et Saint-Dominique. Ce carrousel attirait toujours grande foule ; il eut tant d'éclat sous François Ier que ce prince voulut y assister en 1540. Il s'en déclara fort enchanté, dit-on.
 C'est au Pré-aux-Clercs que, deux fois par semaine, se rendait la justice bazochiale. »
 Une autre explication sur l'origine du nom vient du fait que le pré appartenait probablement dès 960 (première mention à cette date) à l'Université de Paris (apparue dès le milieu du XIIe siècle) et que les étudiants (appelés autrefois « clercs ») venaient s'y détendre pendant leurs périodes de repos.
@@ -530,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Pr%C3%A9-aux-Clercs</t>
+          <t>Pré-aux-Clercs</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,11 +562,13 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On ne sait rien de la façon dont ce terrain est passé de la propriété de l'abbaye de Saint-Germain-des-Prés à celle de l'Université de Paris. Une histoire véhiculée par cette dernière se plait à raconter qu'elle le tient d'un don de Charlemagne, mais il s'agit probablement d'une légende. Ce qui est sûr, c'est que les terrains entourant le Pré-aux-Clercs continuèrent d'appartenir à l'abbaye de Saint-Germain. Un conflit entre celle-ci et l'Université au sujet de l'appartenance du pré éclata entre 1179 et 1278, au point où le roi Philippe III le Hardi ordonnera l'arasement de deux tours qui en fermaient l'entrée[3].
-Vers 1552, un quai est construit sur une levée destinée à protéger le Pré-aux-Clercs des inondations[4].
-En 1558, du 13 au 19 mai, quatre mille huguenots conduits par Antoine de Bourbon[réf. souhaitée] chantent des psaumes au Pré-aux-Clercs et sont poursuivis par ordre du roi[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On ne sait rien de la façon dont ce terrain est passé de la propriété de l'abbaye de Saint-Germain-des-Prés à celle de l'Université de Paris. Une histoire véhiculée par cette dernière se plait à raconter qu'elle le tient d'un don de Charlemagne, mais il s'agit probablement d'une légende. Ce qui est sûr, c'est que les terrains entourant le Pré-aux-Clercs continuèrent d'appartenir à l'abbaye de Saint-Germain. Un conflit entre celle-ci et l'Université au sujet de l'appartenance du pré éclata entre 1179 et 1278, au point où le roi Philippe III le Hardi ordonnera l'arasement de deux tours qui en fermaient l'entrée.
+Vers 1552, un quai est construit sur une levée destinée à protéger le Pré-aux-Clercs des inondations.
+En 1558, du 13 au 19 mai, quatre mille huguenots conduits par Antoine de Bourbon[réf. souhaitée] chantent des psaumes au Pré-aux-Clercs et sont poursuivis par ordre du roi.
 En 1639, le Pré-aux-Clercs était l'une des voiries de Paris.
 En 1640, la rue de Verneuil est ouverte sur le grand Pré-aux-Clercs.
 Un panneau Histoire de Paris, à l'angle de la rue du Pré-aux-Clercs et de la rue Perronet, rend hommage à l'histoire du pré.
@@ -566,7 +582,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Pr%C3%A9-aux-Clercs</t>
+          <t>Pré-aux-Clercs</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -584,7 +600,9 @@
           <t>Littérature</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Pierre Corneille, Le Menteur, acte II, scène V, 1644 :
 Paris voit tous les jours de ces Métamorphoses. 
